--- a/uploads/import.xlsx
+++ b/uploads/import.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4447ED7A-450E-45B4-8AFA-6FCD20ED9843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D113285A-91A9-4807-99B8-643202050F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="14640" xr2:uid="{698187C7-EA18-4C17-B74B-4FAFA27DDFC3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{698187C7-EA18-4C17-B74B-4FAFA27DDFC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
   <si>
     <t>student_code</t>
   </si>
@@ -87,9 +87,36 @@
     <t>K63</t>
   </si>
   <si>
+    <t>K64RB</t>
+  </si>
+  <si>
     <t>XS</t>
   </si>
   <si>
+    <t>Trần Đức Anh</t>
+  </si>
+  <si>
+    <t>Vũ Duy Ánh</t>
+  </si>
+  <si>
+    <t>Nguyễn Thành Công</t>
+  </si>
+  <si>
+    <t>Vũ Tiến Dũng</t>
+  </si>
+  <si>
+    <t>Phạm Văn Duy</t>
+  </si>
+  <si>
+    <t>Trần Quang Đạt</t>
+  </si>
+  <si>
+    <t>Nguyễn Tuấn Đức</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Đức</t>
+  </si>
+  <si>
     <t>28/01/2000</t>
   </si>
   <si>
@@ -99,25 +126,31 @@
     <t>27/08/2000</t>
   </si>
   <si>
+    <t>17/09/2000</t>
+  </si>
+  <si>
+    <t>14/10/2000</t>
+  </si>
+  <si>
     <t>2024-2025</t>
   </si>
   <si>
     <t>2021-2022</t>
   </si>
   <si>
-    <t>Nguyen Van A</t>
-  </si>
-  <si>
-    <t>Nguyen Van B</t>
-  </si>
-  <si>
-    <t>Nguyen Van C</t>
-  </si>
-  <si>
-    <t>Nguyen Van D</t>
-  </si>
-  <si>
-    <t>Nguyen Van F</t>
+    <t>2026-2027</t>
+  </si>
+  <si>
+    <t>2023-2024</t>
+  </si>
+  <si>
+    <t>Khá</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>SVCĐG</t>
   </si>
 </sst>
 </file>
@@ -531,7 +564,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -593,13 +626,13 @@
     </row>
     <row r="2" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
-        <v>19020174</v>
+        <v>18020174</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>14</v>
@@ -617,7 +650,7 @@
         <v>2.78</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J2" s="4">
         <v>1</v>
@@ -626,7 +659,9 @@
       <c r="L2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="2"/>
+      <c r="M2" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="N2" s="3"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -634,10 +669,10 @@
     </row>
     <row r="3" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
-        <v>19020180</v>
+        <v>18020180</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C3" s="9">
         <v>36648</v>
@@ -646,7 +681,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="6">
         <v>0</v>
@@ -658,11 +693,9 @@
         <v>3.07</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="4">
-        <v>1</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="5" t="s">
         <v>12</v>
@@ -675,22 +708,22 @@
     </row>
     <row r="4" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
-        <v>19020242</v>
+        <v>18020242</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F4" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="7">
         <v>4</v>
@@ -699,14 +732,16 @@
         <v>3.01</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="N4" s="3"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
@@ -714,10 +749,10 @@
     </row>
     <row r="5" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
-        <v>19020360</v>
+        <v>18020360</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C5" s="9">
         <v>36532</v>
@@ -726,26 +761,28 @@
         <v>16</v>
       </c>
       <c r="E5" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="7">
-        <v>3.03</v>
+        <v>3.22</v>
       </c>
       <c r="H5" s="7">
         <v>2.95</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="N5" s="3"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -753,13 +790,13 @@
     </row>
     <row r="6" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
-        <v>19020418</v>
+        <v>18020418</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>14</v>
@@ -768,7 +805,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G6" s="7">
         <v>3.67</v>
@@ -782,7 +819,7 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="5" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="3"/>
@@ -791,18 +828,38 @@
       <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="4"/>
+      <c r="A7" s="4">
+        <v>18020282</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="9">
+        <v>36868</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="6">
+        <v>2</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
+        <v>4</v>
+      </c>
+      <c r="H7" s="7">
+        <v>3.08</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
-      <c r="L7" s="5"/>
+      <c r="L7" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="M7" s="2"/>
       <c r="N7" s="3"/>
       <c r="O7" s="2"/>
@@ -810,37 +867,79 @@
       <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="4"/>
+      <c r="A8" s="4">
+        <v>18020338</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="7">
+        <v>3.81</v>
+      </c>
+      <c r="H8" s="7">
+        <v>3.16</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="2"/>
+      <c r="L8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="N8" s="3"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
     </row>
     <row r="9" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="4"/>
+      <c r="A9" s="4">
+        <v>18020334</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7">
+        <v>4</v>
+      </c>
+      <c r="H9" s="7">
+        <v>3.51</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
-      <c r="L9" s="5"/>
+      <c r="L9" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="M9" s="2"/>
       <c r="N9" s="3"/>
       <c r="O9" s="2"/>
@@ -848,37 +947,81 @@
       <c r="Q9" s="2"/>
     </row>
     <row r="10" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="4"/>
+      <c r="A10" s="4">
+        <v>18020334</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7">
+        <v>3.7</v>
+      </c>
+      <c r="H10" s="7">
+        <v>3.51</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="2"/>
+      <c r="L10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="N10" s="3"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
     </row>
     <row r="11" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="A11" s="4">
+        <v>18020174</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7">
+        <v>3.15</v>
+      </c>
+      <c r="H11" s="7">
+        <v>2.98</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="4">
+        <v>1</v>
+      </c>
       <c r="K11" s="4"/>
-      <c r="L11" s="5"/>
+      <c r="L11" s="5" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
